--- a/System_BOM.xlsx
+++ b/System_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamm\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F3CB591-6191-44CB-9451-C8083CA58A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078834B0-DB58-4AE9-99F9-A401286E13BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="3890" windowWidth="28800" windowHeight="15380" xr2:uid="{32F0BA52-A188-4685-ABFE-D05147148313}"/>
+    <workbookView xWindow="5640" yWindow="2450" windowWidth="28800" windowHeight="15380" xr2:uid="{32F0BA52-A188-4685-ABFE-D05147148313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Capacitance Moisture Sensor</t>
   </si>
   <si>
@@ -84,6 +81,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B0CLV6WB4L</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ADS1115</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Qoroos-Converter-Programmable-Amplifier-Development/dp/B0DP43DDZG/</t>
   </si>
 </sst>
 </file>
@@ -157,13 +166,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -195,7 +204,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6819900" y="234950"/>
+          <a:off x="6978650" y="234950"/>
           <a:ext cx="806450" cy="806450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -218,15 +227,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>488950</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -256,7 +265,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6800850" y="1054100"/>
+          <a:off x="7010400" y="1085850"/>
           <a:ext cx="876300" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -596,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99361CB-F8F1-4E4B-BE15-36BC2E15E1CE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +617,7 @@
     <col min="2" max="2" width="45.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,15 +628,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -635,13 +647,17 @@
       <c r="D2" s="1">
         <v>9.99</v>
       </c>
+      <c r="E2" s="1">
+        <f>D2*C2</f>
+        <v>9.99</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -649,13 +665,17 @@
       <c r="D3" s="1">
         <v>8.99</v>
       </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" si="0">D3*C3</f>
+        <v>8.99</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -663,27 +683,35 @@
       <c r="D4" s="1">
         <v>130.99</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>130.99</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>9.59</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>19.18</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -691,13 +719,17 @@
       <c r="D6" s="1">
         <v>20.89</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>20.89</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -705,9 +737,35 @@
       <c r="D7" s="1">
         <v>12.99</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>12.88/4</f>
+        <v>3.22</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>12.88</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{5C0EAC92-02D0-46BA-B756-1CE4DBB7365E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>